--- a/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation_output_archived.xlsx
+++ b/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation_output_archived.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
   <si>
     <t>CIN5</t>
   </si>
@@ -44,33 +44,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -83,21 +62,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -119,25 +89,40 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>iestimate</t>
-  </si>
-  <si>
-    <t>igraph</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
     <t>this is a test case in which the forward problem was solved to generate data.</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>prorate</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
@@ -587,189 +572,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -781,366 +733,349 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.8096872157600989E-2</v>
       </c>
       <c r="D2">
-        <v>-9.8096872157600989E-2</v>
+        <v>-0.19358272021523365</v>
       </c>
       <c r="E2">
-        <v>-0.19358272021523365</v>
+        <v>-0.28635901835240191</v>
       </c>
       <c r="F2">
-        <v>-0.28635901835240191</v>
+        <v>-0.37633437302717271</v>
       </c>
       <c r="G2">
-        <v>-0.37633437302717271</v>
+        <v>-0.4634234563409218</v>
       </c>
       <c r="H2">
-        <v>-0.4634234563409218</v>
+        <v>-0.54755089957160386</v>
       </c>
       <c r="I2">
-        <v>-0.54755089957160386</v>
+        <v>-0.62865006859867334</v>
       </c>
       <c r="J2">
-        <v>-0.62865006859867334</v>
+        <v>-0.70666657315145021</v>
       </c>
       <c r="K2">
-        <v>-0.70666657315145021</v>
+        <v>-0.78155693505421697</v>
       </c>
       <c r="L2">
-        <v>-0.78155693505421697</v>
+        <v>-0.85329157313968618</v>
       </c>
       <c r="M2">
-        <v>-0.85329157313968618</v>
+        <v>-0.92185324723840667</v>
       </c>
       <c r="N2">
-        <v>-0.92185324723840667</v>
+        <v>-0.98723941522118397</v>
       </c>
       <c r="O2">
-        <v>-0.98723941522118397</v>
+        <v>-1.0494603811666103</v>
       </c>
       <c r="P2">
-        <v>-1.0494603811666103</v>
+        <v>-1.1085409819043666</v>
       </c>
       <c r="Q2">
-        <v>-1.1085409819043666</v>
+        <v>-1.1645184311010361</v>
       </c>
       <c r="R2">
-        <v>-1.1645184311010361</v>
+        <v>-1.2174433647165939</v>
       </c>
       <c r="S2">
-        <v>-1.2174433647165939</v>
+        <v>-1.2673774384014946</v>
       </c>
       <c r="T2">
-        <v>-1.2673774384014946</v>
+        <v>-1.3143938272555413</v>
       </c>
       <c r="U2">
-        <v>-1.3143938272555413</v>
+        <v>-1.3585746855641136</v>
       </c>
       <c r="V2">
-        <v>-1.3585746855641136</v>
-      </c>
-      <c r="W2">
         <v>-1.4000111740380659</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.1587396386393829E-2</v>
       </c>
       <c r="D3">
-        <v>-6.1587396386393829E-2</v>
+        <v>-0.12004083105051</v>
       </c>
       <c r="E3">
-        <v>-0.12004083105051</v>
+        <v>-0.17540023039095512</v>
       </c>
       <c r="F3">
-        <v>-0.17540023039095512</v>
+        <v>-0.22771866721825179</v>
       </c>
       <c r="G3">
-        <v>-0.22771866721825179</v>
+        <v>-0.27706005562555996</v>
       </c>
       <c r="H3">
-        <v>-0.27706005562555996</v>
+        <v>-0.32349960316003284</v>
       </c>
       <c r="I3">
-        <v>-0.32349960316003284</v>
+        <v>-0.36712126403255907</v>
       </c>
       <c r="J3">
-        <v>-0.36712126403255907</v>
+        <v>-0.40801780143426464</v>
       </c>
       <c r="K3">
-        <v>-0.40801780143426464</v>
+        <v>-0.44628825230574937</v>
       </c>
       <c r="L3">
-        <v>-0.44628825230574937</v>
+        <v>-0.482037756409264</v>
       </c>
       <c r="M3">
-        <v>-0.482037756409264</v>
+        <v>-0.5153751643226403</v>
       </c>
       <c r="N3">
-        <v>-0.5153751643226403</v>
+        <v>-0.54641277620991557</v>
       </c>
       <c r="O3">
-        <v>-0.54641277620991557</v>
+        <v>-0.57526419785370242</v>
       </c>
       <c r="P3">
-        <v>-0.57526419785370242</v>
+        <v>-0.60204409996196262</v>
       </c>
       <c r="Q3">
-        <v>-0.60204409996196262</v>
+        <v>-0.62686638828591179</v>
       </c>
       <c r="R3">
-        <v>-0.62686638828591179</v>
+        <v>-0.64984405463737771</v>
       </c>
       <c r="S3">
-        <v>-0.64984405463737771</v>
+        <v>-0.67108768693773169</v>
       </c>
       <c r="T3">
-        <v>-0.67108768693773169</v>
+        <v>-0.69070544537002543</v>
       </c>
       <c r="U3">
-        <v>-0.69070544537002543</v>
+        <v>-0.70880190427996903</v>
       </c>
       <c r="V3">
-        <v>-0.70880190427996903</v>
-      </c>
-      <c r="W3">
         <v>-0.72547813025512919</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8.4297899397572484E-2</v>
       </c>
       <c r="D4">
-        <v>8.4297899397572484E-2</v>
+        <v>0.15582903782608426</v>
       </c>
       <c r="E4">
-        <v>0.15582903782608426</v>
+        <v>0.2169038412737514</v>
       </c>
       <c r="F4">
-        <v>0.2169038412737514</v>
+        <v>0.26929313759476448</v>
       </c>
       <c r="G4">
-        <v>0.26929313759476448</v>
+        <v>0.31438352581653828</v>
       </c>
       <c r="H4">
-        <v>0.31438352581653828</v>
+        <v>0.35328231928695142</v>
       </c>
       <c r="I4">
-        <v>0.35328231928695142</v>
+        <v>0.38688708330330801</v>
       </c>
       <c r="J4">
-        <v>0.38688708330330801</v>
+        <v>0.41593636128526468</v>
       </c>
       <c r="K4">
-        <v>0.41593636128526468</v>
+        <v>0.44104430062315703</v>
       </c>
       <c r="L4">
-        <v>0.44104430062315703</v>
+        <v>0.46272772288114827</v>
       </c>
       <c r="M4">
-        <v>0.46272772288114827</v>
+        <v>0.48142476686812763</v>
       </c>
       <c r="N4">
-        <v>0.48142476686812763</v>
+        <v>0.49751050481836256</v>
       </c>
       <c r="O4">
-        <v>0.49751050481836256</v>
+        <v>0.51130759893268729</v>
       </c>
       <c r="P4">
-        <v>0.51130759893268729</v>
+        <v>0.52309590108161674</v>
       </c>
       <c r="Q4">
-        <v>0.52309590108161674</v>
+        <v>0.53311883990705877</v>
       </c>
       <c r="R4">
-        <v>0.53311883990705877</v>
+        <v>0.54158964456248193</v>
       </c>
       <c r="S4">
-        <v>0.54158964456248193</v>
+        <v>0.54869532507867746</v>
       </c>
       <c r="T4">
-        <v>0.54869532507867746</v>
+        <v>0.55460089435464899</v>
       </c>
       <c r="U4">
-        <v>0.55460089435464899</v>
+        <v>0.55945193299074281</v>
       </c>
       <c r="V4">
-        <v>0.55945193299074281</v>
-      </c>
-      <c r="W4">
         <v>0.56337754477450463</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-7.2357208173114473E-2</v>
       </c>
       <c r="D5">
-        <v>-7.2357208173114473E-2</v>
+        <v>-0.14506742729678002</v>
       </c>
       <c r="E5">
-        <v>-0.14506742729678002</v>
+        <v>-0.21798102249783693</v>
       </c>
       <c r="F5">
-        <v>-0.21798102249783693</v>
+        <v>-0.29093611754335841</v>
       </c>
       <c r="G5">
-        <v>-0.29093611754335841</v>
+        <v>-0.36376438742761547</v>
       </c>
       <c r="H5">
-        <v>-0.36376438742761547</v>
+        <v>-0.43629385280016891</v>
       </c>
       <c r="I5">
-        <v>-0.43629385280016891</v>
+        <v>-0.50835289615533297</v>
       </c>
       <c r="J5">
-        <v>-0.50835289615533297</v>
+        <v>-0.57977179746357477</v>
       </c>
       <c r="K5">
-        <v>-0.57977179746357477</v>
+        <v>-0.65038543888353484</v>
       </c>
       <c r="L5">
-        <v>-0.65038543888353484</v>
+        <v>-0.72003411718968613</v>
       </c>
       <c r="M5">
-        <v>-0.72003411718968613</v>
+        <v>-0.78856540490829596</v>
       </c>
       <c r="N5">
-        <v>-0.78856540490829596</v>
+        <v>-0.85583461975989494</v>
       </c>
       <c r="O5">
-        <v>-0.85583461975989494</v>
+        <v>-0.92170615354548813</v>
       </c>
       <c r="P5">
-        <v>-0.92170615354548813</v>
+        <v>-0.98605380958927369</v>
       </c>
       <c r="Q5">
-        <v>-0.98605380958927369</v>
+        <v>-1.0487617687822757</v>
       </c>
       <c r="R5">
-        <v>-1.0487617687822757</v>
+        <v>-1.1097248750152562</v>
       </c>
       <c r="S5">
-        <v>-1.1097248750152562</v>
+        <v>-1.1688493069114299</v>
       </c>
       <c r="T5">
-        <v>-1.1688493069114299</v>
+        <v>-1.2260528081746902</v>
       </c>
       <c r="U5">
-        <v>-1.2260528081746902</v>
+        <v>-1.2812650748626992</v>
       </c>
       <c r="V5">
-        <v>-1.2812650748626992</v>
-      </c>
-      <c r="W5">
         <v>-1.3344278834522285</v>
       </c>
     </row>
@@ -1151,232 +1086,221 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.8096872157600989E-2</v>
       </c>
       <c r="D2">
-        <v>-9.8096872157600989E-2</v>
+        <v>-0.19358272021523365</v>
       </c>
       <c r="E2">
-        <v>-0.19358272021523365</v>
+        <v>-0.28635901835240191</v>
       </c>
       <c r="F2">
-        <v>-0.28635901835240191</v>
+        <v>-0.37633437302717271</v>
       </c>
       <c r="G2">
-        <v>-0.37633437302717271</v>
+        <v>-0.4634234563409218</v>
       </c>
       <c r="H2">
-        <v>-0.4634234563409218</v>
+        <v>-0.54755089957160386</v>
       </c>
       <c r="I2">
-        <v>-0.54755089957160386</v>
+        <v>-0.62865006859867334</v>
       </c>
       <c r="J2">
-        <v>-0.62865006859867334</v>
+        <v>-0.70666657315145021</v>
       </c>
       <c r="K2">
-        <v>-0.70666657315145021</v>
+        <v>-0.78155693505421697</v>
       </c>
       <c r="L2">
-        <v>-0.78155693505421697</v>
+        <v>-0.85329157313968618</v>
       </c>
       <c r="M2">
-        <v>-0.85329157313968618</v>
+        <v>-0.92185324723840667</v>
       </c>
       <c r="N2">
-        <v>-0.92185324723840667</v>
+        <v>-0.98723941522118397</v>
       </c>
       <c r="O2">
-        <v>-0.98723941522118397</v>
+        <v>-1.0494603811666103</v>
       </c>
       <c r="P2">
-        <v>-1.0494603811666103</v>
+        <v>-1.1085409819043666</v>
       </c>
       <c r="Q2">
-        <v>-1.1085409819043666</v>
+        <v>-1.1645184311010361</v>
       </c>
       <c r="R2">
-        <v>-1.1645184311010361</v>
+        <v>-1.2174433647165939</v>
       </c>
       <c r="S2">
-        <v>-1.2174433647165939</v>
+        <v>-1.2673774384014946</v>
       </c>
       <c r="T2">
-        <v>-1.2673774384014946</v>
+        <v>-1.3143938272555413</v>
       </c>
       <c r="U2">
-        <v>-1.3143938272555413</v>
+        <v>-1.3585746855641136</v>
       </c>
       <c r="V2">
-        <v>-1.3585746855641136</v>
-      </c>
-      <c r="W2">
         <v>-1.4000111740380659</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.1587396386393829E-2</v>
       </c>
       <c r="D3">
-        <v>-6.1587396386393829E-2</v>
+        <v>-0.12004083105051</v>
       </c>
       <c r="E3">
-        <v>-0.12004083105051</v>
+        <v>-0.17540023039095512</v>
       </c>
       <c r="F3">
-        <v>-0.17540023039095512</v>
+        <v>-0.22771866721825179</v>
       </c>
       <c r="G3">
-        <v>-0.22771866721825179</v>
+        <v>-0.27706005562555996</v>
       </c>
       <c r="H3">
-        <v>-0.27706005562555996</v>
+        <v>-0.32349960316003284</v>
       </c>
       <c r="I3">
-        <v>-0.32349960316003284</v>
+        <v>-0.36712126403255907</v>
       </c>
       <c r="J3">
-        <v>-0.36712126403255907</v>
+        <v>-0.40801780143426464</v>
       </c>
       <c r="K3">
-        <v>-0.40801780143426464</v>
+        <v>-0.44628825230574937</v>
       </c>
       <c r="L3">
-        <v>-0.44628825230574937</v>
+        <v>-0.482037756409264</v>
       </c>
       <c r="M3">
-        <v>-0.482037756409264</v>
+        <v>-0.5153751643226403</v>
       </c>
       <c r="N3">
-        <v>-0.5153751643226403</v>
+        <v>-0.54641277620991557</v>
       </c>
       <c r="O3">
-        <v>-0.54641277620991557</v>
+        <v>-0.57526419785370242</v>
       </c>
       <c r="P3">
-        <v>-0.57526419785370242</v>
+        <v>-0.60204409996196262</v>
       </c>
       <c r="Q3">
-        <v>-0.60204409996196262</v>
+        <v>-0.62686638828591179</v>
       </c>
       <c r="R3">
-        <v>-0.62686638828591179</v>
+        <v>-0.64984405463737771</v>
       </c>
       <c r="S3">
-        <v>-0.64984405463737771</v>
+        <v>-0.67108768693773169</v>
       </c>
       <c r="T3">
-        <v>-0.67108768693773169</v>
+        <v>-0.69070544537002543</v>
       </c>
       <c r="U3">
-        <v>-0.69070544537002543</v>
+        <v>-0.70880190427996903</v>
       </c>
       <c r="V3">
-        <v>-0.70880190427996903</v>
-      </c>
-      <c r="W3">
         <v>-0.72547813025512919</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1439,78 +1363,72 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-3.7774076699559178E-2</v>
       </c>
       <c r="D5">
-        <v>-3.7774076699559178E-2</v>
+        <v>-7.3540357338861453E-2</v>
       </c>
       <c r="E5">
-        <v>-7.3540357338861453E-2</v>
+        <v>-0.10736638469232823</v>
       </c>
       <c r="F5">
-        <v>-0.10736638469232823</v>
+        <v>-0.13932152624209584</v>
       </c>
       <c r="G5">
-        <v>-0.13932152624209584</v>
+        <v>-0.16947613433819128</v>
       </c>
       <c r="H5">
-        <v>-0.16947613433819128</v>
+        <v>-0.1979015959612859</v>
       </c>
       <c r="I5">
-        <v>-0.1979015959612859</v>
+        <v>-0.22466952173826296</v>
       </c>
       <c r="J5">
-        <v>-0.22466952173826296</v>
+        <v>-0.24985175940276158</v>
       </c>
       <c r="K5">
-        <v>-0.24985175940276158</v>
+        <v>-0.2735196690112055</v>
       </c>
       <c r="L5">
-        <v>-0.2735196690112055</v>
+        <v>-0.29574413013383832</v>
       </c>
       <c r="M5">
-        <v>-0.29574413013383832</v>
+        <v>-0.31659491570856885</v>
       </c>
       <c r="N5">
-        <v>-0.31659491570856885</v>
+        <v>-0.33614071316139382</v>
       </c>
       <c r="O5">
-        <v>-0.33614071316139382</v>
+        <v>-0.35444860128861688</v>
       </c>
       <c r="P5">
-        <v>-0.35444860128861688</v>
+        <v>-0.37158409659914488</v>
       </c>
       <c r="Q5">
-        <v>-0.37158409659914488</v>
+        <v>-0.3876107307558222</v>
       </c>
       <c r="R5">
-        <v>-0.3876107307558222</v>
+        <v>-0.40259012625145324</v>
       </c>
       <c r="S5">
-        <v>-0.40259012625145324</v>
+        <v>-0.41658166684754583</v>
       </c>
       <c r="T5">
-        <v>-0.41658166684754583</v>
+        <v>-0.42964260152428002</v>
       </c>
       <c r="U5">
-        <v>-0.42964260152428002</v>
+        <v>-0.44182779714144027</v>
       </c>
       <c r="V5">
-        <v>-0.44182779714144027</v>
-      </c>
-      <c r="W5">
         <v>-0.45318985790321181</v>
       </c>
     </row>
@@ -1521,66 +1439,51 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.50000023818772787</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>0.99999913187800626</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>1.9948001474184687</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>1.000000828965236</v>
       </c>
     </row>
@@ -1591,66 +1494,51 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -1663,21 +1551,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1688,7 +1574,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.49999757651662369</v>
@@ -1705,7 +1591,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1761,159 +1647,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1925,262 +1778,247 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="11">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="C1" s="12">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="D1" s="13">
         <v>0.4</v>
       </c>
-      <c r="F1" s="14">
+      <c r="E1" s="14">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="F1" s="15">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="G1" s="16">
         <v>0.8</v>
       </c>
-      <c r="I1" s="17">
+      <c r="H1" s="17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="18">
+      <c r="I1" s="18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="19">
+      <c r="J1" s="19">
         <v>1.2</v>
       </c>
-      <c r="L1" s="20">
+      <c r="K1" s="20">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="L1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
+      <c r="M1" s="22">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="C2" s="12">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="D2" s="13">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="14">
+      <c r="E2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="F2" s="15">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="G2" s="16">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="17">
+      <c r="H2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="I2" s="18">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="J2" s="19">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="20">
+      <c r="K2" s="20">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="L2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
+      <c r="M2" s="22">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="C3" s="12">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="D3" s="13">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="14">
+      <c r="E3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="F3" s="15">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="G3" s="16">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="17">
+      <c r="H3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="I3" s="18">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="J3" s="19">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="20">
+      <c r="K3" s="20">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="L3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
+      <c r="M3" s="22">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="C4" s="12">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="D4" s="13">
         <v>0.26929382132237512</v>
       </c>
-      <c r="F4" s="14">
+      <c r="E4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="F4" s="15">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="G4" s="16">
         <v>0.41593537248224854</v>
       </c>
-      <c r="I4" s="17">
+      <c r="H4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="I4" s="18">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="J4" s="19">
         <v>0.49751163358969142</v>
       </c>
-      <c r="L4" s="20">
+      <c r="K4" s="20">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="L4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
+      <c r="M4" s="22">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="C5" s="12">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="D5" s="13">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="F5" s="14">
+      <c r="E5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="F5" s="15">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="G5" s="16">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="I5" s="17">
+      <c r="H5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="I5" s="18">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="J5" s="19">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="L5" s="20">
+      <c r="K5" s="20">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="L5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
+      <c r="M5" s="22">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2192,20 +2030,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="10">
         <v>0.4</v>
@@ -2214,7 +2050,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="10">
         <v>0.8</v>
@@ -2223,7 +2059,7 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="10">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="10">
         <v>1.2000000000000002</v>
@@ -2232,7 +2068,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K1" s="10">
-        <v>1.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="10">
         <v>1.6</v>
@@ -2240,17 +2076,14 @@
       <c r="M1" s="10">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
         <v>-0.37633430629205178</v>
@@ -2259,7 +2092,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="10">
         <v>-0.70666646734338179</v>
@@ -2268,7 +2101,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="10">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="10">
         <v>-0.98723929967009216</v>
@@ -2277,7 +2110,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="10">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="10">
         <v>-1.2174432654761544</v>
@@ -2285,16 +2118,13 @@
       <c r="M2" s="10">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
         <v>-0.22771865423983556</v>
@@ -2303,7 +2133,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="10">
         <v>-0.40801774302656463</v>
@@ -2312,7 +2142,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="10">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="10">
         <v>-0.5464126532391167</v>
@@ -2321,7 +2151,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="10">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="10">
         <v>-0.64984386018298912</v>
@@ -2329,15 +2159,12 @@
       <c r="M3" s="10">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10">
@@ -2373,16 +2200,13 @@
       <c r="M4" s="10">
         <v>0</v>
       </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="10">
         <v>-0.13932150464649004</v>
@@ -2391,7 +2215,7 @@
         <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="10">
-        <v>-0.13932150464649004</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="10">
         <v>-0.24985173044541253</v>
@@ -2400,7 +2224,7 @@
         <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="10">
-        <v>-0.24985173044541253</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="10">
         <v>-0.33614068837409528</v>
@@ -2409,7 +2233,7 @@
         <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="10">
-        <v>-0.33614068837409528</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="10">
         <v>-0.40259011361710589</v>
@@ -2417,57 +2241,54 @@
       <c r="M5" s="10">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2480,9 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2508,13 +2327,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2525,7 +2344,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2542,7 +2361,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2603,9 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2630,13 +2447,13 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2664,7 +2481,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2681,7 +2498,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2743,7 +2560,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2753,22 +2570,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2789,7 +2606,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>100000000</v>
@@ -2797,7 +2614,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1E-10</v>
@@ -2805,7 +2622,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>100000000</v>
@@ -2813,7 +2630,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1E-10</v>
@@ -2821,15 +2638,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -2837,7 +2654,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -2845,7 +2662,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -2853,7 +2670,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -2861,7 +2678,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B13" s="9">
         <v>0.4</v>
@@ -2878,18 +2695,18 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8">
         <v>3</v>
@@ -2900,7 +2717,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -2911,7 +2728,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2990,19 +2807,25 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3010,7 +2833,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3056,7 +2879,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation_output_archived.xlsx
+++ b/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation_output_archived.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -25,12 +25,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -586,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1094,7 +1094,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1449,10 +1449,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,10 +1504,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1662,10 +1662,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11">
         <v>0.4</v>
@@ -2038,7 +2038,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2327,7 +2327,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2447,7 +2447,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2559,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2568,27 +2568,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2584,7 @@
         <v>1E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2612,7 +2600,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2608,7 @@
         <v>1E-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2628,7 +2616,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2636,99 +2624,96 @@
         <v>1E-10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2817,10 +2802,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2879,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
